--- a/pred_ohlcv/54_21/2020-01-19 DAC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-19 DAC ohlcv.xlsx
@@ -12092,7 +12092,7 @@
         <v>-5260791.456251557</v>
       </c>
       <c r="H450">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>-5260791.456251557</v>
       </c>
       <c r="H451">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>-5298189.062551557</v>
       </c>
       <c r="H452">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>-5237152.655251557</v>
       </c>
       <c r="H453">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>-5297142.145351557</v>
       </c>
       <c r="H454">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>-5339281.335551557</v>
       </c>
       <c r="H455">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>-5182506.246151557</v>
       </c>
       <c r="H456">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>-5002242.700051557</v>
       </c>
       <c r="H457">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>-3300493.0872256</v>
       </c>
       <c r="H463">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>-3778681.7666256</v>
       </c>
       <c r="H464">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>-3836610.7880256</v>
       </c>
       <c r="H465">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>-3656605.4211256</v>
       </c>
       <c r="H467">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>-3740410.9593256</v>
       </c>
       <c r="H468">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>-3794853.2897256</v>
       </c>
       <c r="H469">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>-4673197.9664256</v>
       </c>
       <c r="H470">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>-6066603.2904256</v>
       </c>
       <c r="H471">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>-11747301.5855256</v>
       </c>
       <c r="H474">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>-9878017.165725598</v>
       </c>
       <c r="H475">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>-9328045.546225598</v>
       </c>
       <c r="H476">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>-9956326.907225598</v>
       </c>
       <c r="H477">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>-9916550.170525597</v>
       </c>
       <c r="H478">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>-11025967.9396256</v>
       </c>
       <c r="H484">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13002,7 +13002,7 @@
         <v>-11093263.6868256</v>
       </c>
       <c r="H485">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -13028,7 +13028,7 @@
         <v>-10906234.49952612</v>
       </c>
       <c r="H486">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -13054,7 +13054,7 @@
         <v>-10952937.77232612</v>
       </c>
       <c r="H487">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -16850,7 +16850,7 @@
         <v>-11957232.87652611</v>
       </c>
       <c r="H633">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="634" spans="1:8">
@@ -16876,7 +16876,7 @@
         <v>-12448765.43942611</v>
       </c>
       <c r="H634">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="635" spans="1:8">
@@ -16928,7 +16928,7 @@
         <v>-12415139.89292611</v>
       </c>
       <c r="H636">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="637" spans="1:8">
@@ -16954,7 +16954,7 @@
         <v>-12415139.89292611</v>
       </c>
       <c r="H637">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="638" spans="1:8">
@@ -17032,7 +17032,7 @@
         <v>-12383496.20862611</v>
       </c>
       <c r="H640">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="641" spans="1:8">
@@ -17058,7 +17058,7 @@
         <v>-12425371.41642611</v>
       </c>
       <c r="H641">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="642" spans="1:8">
@@ -17084,7 +17084,7 @@
         <v>-12384957.19182611</v>
       </c>
       <c r="H642">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="643" spans="1:8">
@@ -17188,7 +17188,7 @@
         <v>-12803737.42702611</v>
       </c>
       <c r="H646">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="647" spans="1:8">
@@ -17214,7 +17214,7 @@
         <v>-12845057.84252611</v>
       </c>
       <c r="H647">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="648" spans="1:8">
@@ -17240,7 +17240,7 @@
         <v>-12787655.78912611</v>
       </c>
       <c r="H648">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="649" spans="1:8">
@@ -17266,7 +17266,7 @@
         <v>-12815503.16002611</v>
       </c>
       <c r="H649">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="650" spans="1:8">
@@ -17292,7 +17292,7 @@
         <v>-12767128.14892611</v>
       </c>
       <c r="H650">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="651" spans="1:8">
@@ -17318,7 +17318,7 @@
         <v>-12805614.88702611</v>
       </c>
       <c r="H651">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="652" spans="1:8">
@@ -17344,7 +17344,7 @@
         <v>-12795614.88702611</v>
       </c>
       <c r="H652">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="653" spans="1:8">
@@ -17370,7 +17370,7 @@
         <v>-12844621.12042611</v>
       </c>
       <c r="H653">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="654" spans="1:8">
@@ -17396,7 +17396,7 @@
         <v>-12809194.00792611</v>
       </c>
       <c r="H654">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="655" spans="1:8">
@@ -17422,7 +17422,7 @@
         <v>-12809194.00792611</v>
       </c>
       <c r="H655">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="656" spans="1:8">
@@ -17448,7 +17448,7 @@
         <v>-12765714.58532611</v>
       </c>
       <c r="H656">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="657" spans="1:8">
@@ -17474,7 +17474,7 @@
         <v>-12790475.91702611</v>
       </c>
       <c r="H657">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="658" spans="1:8">
@@ -17500,7 +17500,7 @@
         <v>-12745704.02392611</v>
       </c>
       <c r="H658">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="659" spans="1:8">
@@ -17526,7 +17526,7 @@
         <v>-12789454.31012611</v>
       </c>
       <c r="H659">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="660" spans="1:8">
@@ -17552,7 +17552,7 @@
         <v>-12757719.21602611</v>
       </c>
       <c r="H660">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="661" spans="1:8">
@@ -17578,7 +17578,7 @@
         <v>-12757719.21602611</v>
       </c>
       <c r="H661">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="662" spans="1:8">
@@ -17604,7 +17604,7 @@
         <v>-12757719.21602611</v>
       </c>
       <c r="H662">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="663" spans="1:8">
@@ -17630,7 +17630,7 @@
         <v>-12757719.21602611</v>
       </c>
       <c r="H663">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="664" spans="1:8">
@@ -17656,7 +17656,7 @@
         <v>-12710690.72512611</v>
       </c>
       <c r="H664">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="665" spans="1:8">
@@ -17682,7 +17682,7 @@
         <v>-12710690.72512611</v>
       </c>
       <c r="H665">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="666" spans="1:8">
@@ -17708,7 +17708,7 @@
         <v>-12710690.72512611</v>
       </c>
       <c r="H666">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="667" spans="1:8">
@@ -17734,7 +17734,7 @@
         <v>-12710690.72512611</v>
       </c>
       <c r="H667">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="668" spans="1:8">
@@ -17760,7 +17760,7 @@
         <v>-12710690.72512611</v>
       </c>
       <c r="H668">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="669" spans="1:8">
@@ -17786,7 +17786,7 @@
         <v>-12710690.72512611</v>
       </c>
       <c r="H669">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="670" spans="1:8">
@@ -17812,7 +17812,7 @@
         <v>-12710690.72512611</v>
       </c>
       <c r="H670">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="671" spans="1:8">
@@ -17838,7 +17838,7 @@
         <v>-12710690.72512611</v>
       </c>
       <c r="H671">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="672" spans="1:8">
@@ -17864,7 +17864,7 @@
         <v>-12710690.72512611</v>
       </c>
       <c r="H672">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="673" spans="1:8">
@@ -17890,7 +17890,7 @@
         <v>-12710690.72512611</v>
       </c>
       <c r="H673">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="674" spans="1:8">
@@ -17916,7 +17916,7 @@
         <v>-12710690.72512611</v>
       </c>
       <c r="H674">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="675" spans="1:8">
@@ -17942,7 +17942,7 @@
         <v>-12710690.72512611</v>
       </c>
       <c r="H675">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="676" spans="1:8">
@@ -17968,7 +17968,7 @@
         <v>-12710690.72512611</v>
       </c>
       <c r="H676">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="677" spans="1:8">
@@ -17994,7 +17994,7 @@
         <v>-12710690.72512611</v>
       </c>
       <c r="H677">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="678" spans="1:8">
@@ -18020,7 +18020,7 @@
         <v>-12710690.72512611</v>
       </c>
       <c r="H678">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="679" spans="1:8">
@@ -18046,7 +18046,7 @@
         <v>-12710690.72512611</v>
       </c>
       <c r="H679">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="680" spans="1:8">
@@ -18072,7 +18072,7 @@
         <v>-12710690.72512611</v>
       </c>
       <c r="H680">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="681" spans="1:8">
@@ -18098,7 +18098,7 @@
         <v>-12710690.72512611</v>
       </c>
       <c r="H681">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="682" spans="1:8">
@@ -18124,7 +18124,7 @@
         <v>-12710690.72512611</v>
       </c>
       <c r="H682">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="683" spans="1:8">
@@ -18150,7 +18150,7 @@
         <v>-12710690.72512611</v>
       </c>
       <c r="H683">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="684" spans="1:8">
@@ -18176,7 +18176,7 @@
         <v>-12710690.72512611</v>
       </c>
       <c r="H684">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="685" spans="1:8">
@@ -18202,7 +18202,7 @@
         <v>-12710690.72512611</v>
       </c>
       <c r="H685">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="686" spans="1:8">
@@ -18228,7 +18228,7 @@
         <v>-12710690.72512611</v>
       </c>
       <c r="H686">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="687" spans="1:8">
@@ -18254,7 +18254,7 @@
         <v>-12710690.72512611</v>
       </c>
       <c r="H687">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="688" spans="1:8">
@@ -18280,7 +18280,7 @@
         <v>-12710690.72512611</v>
       </c>
       <c r="H688">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="689" spans="1:8">
@@ -18306,7 +18306,7 @@
         <v>-12710690.72512611</v>
       </c>
       <c r="H689">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="690" spans="1:8">
@@ -18332,7 +18332,7 @@
         <v>-12710690.72512611</v>
       </c>
       <c r="H690">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="691" spans="1:8">
@@ -18358,7 +18358,7 @@
         <v>-12710690.72512611</v>
       </c>
       <c r="H691">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="692" spans="1:8">
@@ -18384,7 +18384,7 @@
         <v>-12710690.72512611</v>
       </c>
       <c r="H692">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="693" spans="1:8">
@@ -18410,7 +18410,7 @@
         <v>-12710690.72512611</v>
       </c>
       <c r="H693">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="694" spans="1:8">
@@ -18436,7 +18436,7 @@
         <v>-12710690.72512611</v>
       </c>
       <c r="H694">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="695" spans="1:8">
@@ -18462,7 +18462,7 @@
         <v>-12710690.72512611</v>
       </c>
       <c r="H695">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="696" spans="1:8">
@@ -18488,7 +18488,7 @@
         <v>-12710690.72512611</v>
       </c>
       <c r="H696">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="697" spans="1:8">
@@ -18514,7 +18514,7 @@
         <v>-12710690.72512611</v>
       </c>
       <c r="H697">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="698" spans="1:8">
@@ -18540,7 +18540,7 @@
         <v>-12710690.72512611</v>
       </c>
       <c r="H698">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="699" spans="1:8">
@@ -18566,7 +18566,7 @@
         <v>-12710690.72512611</v>
       </c>
       <c r="H699">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="700" spans="1:8">
@@ -18592,7 +18592,7 @@
         <v>-12710690.72512611</v>
       </c>
       <c r="H700">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="701" spans="1:8">
@@ -18618,7 +18618,7 @@
         <v>-12710690.72512611</v>
       </c>
       <c r="H701">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="702" spans="1:8">
@@ -18644,7 +18644,7 @@
         <v>-12710690.72512611</v>
       </c>
       <c r="H702">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="703" spans="1:8">
@@ -18670,7 +18670,7 @@
         <v>-12710690.72512611</v>
       </c>
       <c r="H703">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="704" spans="1:8">
@@ -18696,7 +18696,7 @@
         <v>-12710690.72512611</v>
       </c>
       <c r="H704">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="705" spans="1:8">
@@ -18748,7 +18748,7 @@
         <v>-12706027.89568301</v>
       </c>
       <c r="H706">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="707" spans="1:8">
@@ -18930,7 +18930,7 @@
         <v>-12770779.63558301</v>
       </c>
       <c r="H713">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="714" spans="1:8">
@@ -18956,7 +18956,7 @@
         <v>-12737669.51068301</v>
       </c>
       <c r="H714">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="715" spans="1:8">
@@ -18982,7 +18982,7 @@
         <v>-12785574.84948301</v>
       </c>
       <c r="H715">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="716" spans="1:8">
@@ -19008,7 +19008,7 @@
         <v>-12836272.90378301</v>
       </c>
       <c r="H716">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="717" spans="1:8">
@@ -19034,7 +19034,7 @@
         <v>-12793705.82518301</v>
       </c>
       <c r="H717">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="718" spans="1:8">
@@ -19060,7 +19060,7 @@
         <v>-12842004.57828301</v>
       </c>
       <c r="H718">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="719" spans="1:8">
@@ -19086,7 +19086,7 @@
         <v>-12814176.45368301</v>
       </c>
       <c r="H719">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="720" spans="1:8">
@@ -19112,7 +19112,7 @@
         <v>-12863995.38888301</v>
       </c>
       <c r="H720">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="721" spans="1:8">
@@ -19138,7 +19138,7 @@
         <v>-12816955.93398301</v>
       </c>
       <c r="H721">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="722" spans="1:8">
@@ -19164,7 +19164,7 @@
         <v>-12773091.96878301</v>
       </c>
       <c r="H722">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="723" spans="1:8">
@@ -19190,7 +19190,7 @@
         <v>-12816538.27728301</v>
       </c>
       <c r="H723">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="724" spans="1:8">
@@ -19216,7 +19216,7 @@
         <v>-12771935.39808301</v>
       </c>
       <c r="H724">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="725" spans="1:8">
@@ -19242,7 +19242,7 @@
         <v>-12809971.94578301</v>
       </c>
       <c r="H725">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="726" spans="1:8">
@@ -19268,7 +19268,7 @@
         <v>-12748708.69358301</v>
       </c>
       <c r="H726">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="727" spans="1:8">
@@ -19294,7 +19294,7 @@
         <v>-12716089.05728301</v>
       </c>
       <c r="H727">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="728" spans="1:8">
@@ -19320,7 +19320,7 @@
         <v>-12855725.64848301</v>
       </c>
       <c r="H728">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="729" spans="1:8">
@@ -19346,7 +19346,7 @@
         <v>-12894722.64818301</v>
       </c>
       <c r="H729">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="730" spans="1:8">
@@ -19372,7 +19372,7 @@
         <v>-12843556.61458301</v>
       </c>
       <c r="H730">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="731" spans="1:8">
@@ -19398,7 +19398,7 @@
         <v>-12920530.25858301</v>
       </c>
       <c r="H731">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="732" spans="1:8">
@@ -19424,7 +19424,7 @@
         <v>-12876087.96448301</v>
       </c>
       <c r="H732">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="733" spans="1:8">
@@ -19450,7 +19450,7 @@
         <v>-12852648.08368301</v>
       </c>
       <c r="H733">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="734" spans="1:8">
@@ -19476,7 +19476,7 @@
         <v>-12886412.81758301</v>
       </c>
       <c r="H734">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="735" spans="1:8">
@@ -19502,7 +19502,7 @@
         <v>-12849685.71068301</v>
       </c>
       <c r="H735">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="736" spans="1:8">
@@ -19528,7 +19528,7 @@
         <v>-12849685.71068301</v>
       </c>
       <c r="H736">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="737" spans="1:8">
@@ -19554,7 +19554,7 @@
         <v>-12877099.53198301</v>
       </c>
       <c r="H737">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="738" spans="1:8">
@@ -19580,7 +19580,7 @@
         <v>-12834086.73678301</v>
       </c>
       <c r="H738">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="739" spans="1:8">
@@ -19606,7 +19606,7 @@
         <v>-12855998.34808301</v>
       </c>
       <c r="H739">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="740" spans="1:8">
@@ -19632,7 +19632,7 @@
         <v>-12797465.94878301</v>
       </c>
       <c r="H740">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="741" spans="1:8">
@@ -19658,7 +19658,7 @@
         <v>-12757151.18508301</v>
       </c>
       <c r="H741">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="742" spans="1:8">
@@ -19684,7 +19684,7 @@
         <v>-12783731.89318301</v>
       </c>
       <c r="H742">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="743" spans="1:8">
@@ -19710,7 +19710,7 @@
         <v>-12744121.55078301</v>
       </c>
       <c r="H743">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="744" spans="1:8">
@@ -19736,7 +19736,7 @@
         <v>-12805821.62298301</v>
       </c>
       <c r="H744">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="745" spans="1:8">
@@ -19762,7 +19762,7 @@
         <v>-12757974.33048301</v>
       </c>
       <c r="H745">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="746" spans="1:8">
@@ -19788,7 +19788,7 @@
         <v>-12815988.33938301</v>
       </c>
       <c r="H746">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="747" spans="1:8">
@@ -19814,7 +19814,7 @@
         <v>-12782475.74898301</v>
       </c>
       <c r="H747">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="748" spans="1:8">
@@ -19840,7 +19840,7 @@
         <v>-12738180.01698301</v>
       </c>
       <c r="H748">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="749" spans="1:8">
@@ -19866,7 +19866,7 @@
         <v>-12697349.33488301</v>
       </c>
       <c r="H749">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="750" spans="1:8">
@@ -19892,7 +19892,7 @@
         <v>-12746047.24448301</v>
       </c>
       <c r="H750">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="751" spans="1:8">
@@ -19918,7 +19918,7 @@
         <v>-12782219.07888301</v>
       </c>
       <c r="H751">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="752" spans="1:8">
@@ -19944,7 +19944,7 @@
         <v>-12763693.69748301</v>
       </c>
       <c r="H752">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="753" spans="1:8">
@@ -19970,7 +19970,7 @@
         <v>-12719870.60398301</v>
       </c>
       <c r="H753">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="754" spans="1:8">
@@ -19996,7 +19996,7 @@
         <v>-12754573.86578301</v>
       </c>
       <c r="H754">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="755" spans="1:8">
@@ -20022,7 +20022,7 @@
         <v>-12754573.86578301</v>
       </c>
       <c r="H755">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="756" spans="1:8">
@@ -20048,7 +20048,7 @@
         <v>-12710050.44278301</v>
       </c>
       <c r="H756">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="757" spans="1:8">
@@ -20074,7 +20074,7 @@
         <v>-12710050.44278301</v>
       </c>
       <c r="H757">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="758" spans="1:8">
@@ -20100,7 +20100,7 @@
         <v>-12653906.01158301</v>
       </c>
       <c r="H758">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="759" spans="1:8">
@@ -20126,7 +20126,7 @@
         <v>-12609995.63158301</v>
       </c>
       <c r="H759">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="760" spans="1:8">
@@ -20152,7 +20152,7 @@
         <v>-12625435.56018301</v>
       </c>
       <c r="H760">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="761" spans="1:8">
@@ -20178,7 +20178,7 @@
         <v>-12577886.30818301</v>
       </c>
       <c r="H761">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="762" spans="1:8">
@@ -20204,7 +20204,7 @@
         <v>-12624464.95828301</v>
       </c>
       <c r="H762">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="763" spans="1:8">
@@ -20230,7 +20230,7 @@
         <v>-12570051.56558301</v>
       </c>
       <c r="H763">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="764" spans="1:8">
@@ -20256,7 +20256,7 @@
         <v>-12570051.56558301</v>
       </c>
       <c r="H764">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="765" spans="1:8">
@@ -20282,7 +20282,7 @@
         <v>-12570051.56558301</v>
       </c>
       <c r="H765">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="766" spans="1:8">
@@ -20308,7 +20308,7 @@
         <v>-12520728.68378301</v>
       </c>
       <c r="H766">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="767" spans="1:8">
@@ -20334,7 +20334,7 @@
         <v>-12497593.72938301</v>
       </c>
       <c r="H767">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="768" spans="1:8">
@@ -20360,7 +20360,7 @@
         <v>-12537655.77438301</v>
       </c>
       <c r="H768">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="769" spans="1:8">
@@ -20386,7 +20386,7 @@
         <v>-12492755.72308301</v>
       </c>
       <c r="H769">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="770" spans="1:8">
@@ -20412,7 +20412,7 @@
         <v>-12530017.32478301</v>
       </c>
       <c r="H770">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="771" spans="1:8">
@@ -20438,7 +20438,7 @@
         <v>-12568314.43768301</v>
       </c>
       <c r="H771">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="772" spans="1:8">
@@ -20464,7 +20464,7 @@
         <v>-12609705.49338301</v>
       </c>
       <c r="H772">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="773" spans="1:8">
@@ -20490,7 +20490,7 @@
         <v>-12568320.79078301</v>
       </c>
       <c r="H773">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="774" spans="1:8">
@@ -20516,7 +20516,7 @@
         <v>-12613219.06718301</v>
       </c>
       <c r="H774">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="775" spans="1:8">
@@ -20542,7 +20542,7 @@
         <v>-12613219.06718301</v>
       </c>
       <c r="H775">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="776" spans="1:8">
@@ -20568,7 +20568,7 @@
         <v>-12568033.07498301</v>
       </c>
       <c r="H776">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="777" spans="1:8">
@@ -20594,7 +20594,7 @@
         <v>-12525476.89798301</v>
       </c>
       <c r="H777">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="778" spans="1:8">
@@ -20620,7 +20620,7 @@
         <v>-12554658.87478301</v>
       </c>
       <c r="H778">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="779" spans="1:8">
@@ -20646,7 +20646,7 @@
         <v>-12539067.41278302</v>
       </c>
       <c r="H779">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="780" spans="1:8">
@@ -20672,7 +20672,7 @@
         <v>-12495896.65058302</v>
       </c>
       <c r="H780">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="781" spans="1:8">
@@ -20698,7 +20698,7 @@
         <v>-12455938.52488302</v>
       </c>
       <c r="H781">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="782" spans="1:8">
@@ -20724,7 +20724,7 @@
         <v>-12502635.91758301</v>
       </c>
       <c r="H782">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="783" spans="1:8">
@@ -20750,7 +20750,7 @@
         <v>-12548419.91698301</v>
       </c>
       <c r="H783">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="784" spans="1:8">
@@ -20776,7 +20776,7 @@
         <v>-12579859.58588301</v>
       </c>
       <c r="H784">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="785" spans="1:8">
@@ -20802,7 +20802,7 @@
         <v>-12536925.62078301</v>
       </c>
       <c r="H785">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="786" spans="1:8">
@@ -20828,7 +20828,7 @@
         <v>-12536925.62078301</v>
       </c>
       <c r="H786">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="787" spans="1:8">
@@ -20854,7 +20854,7 @@
         <v>-12482216.39678301</v>
       </c>
       <c r="H787">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="788" spans="1:8">
@@ -20880,7 +20880,7 @@
         <v>-12525777.70908302</v>
       </c>
       <c r="H788">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="789" spans="1:8">
@@ -20906,7 +20906,7 @@
         <v>-12556528.93408301</v>
       </c>
       <c r="H789">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="790" spans="1:8">
@@ -20932,7 +20932,7 @@
         <v>-12517828.43398301</v>
       </c>
       <c r="H790">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="791" spans="1:8">
@@ -20958,7 +20958,7 @@
         <v>-12566059.67048302</v>
       </c>
       <c r="H791">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="792" spans="1:8">
@@ -20984,7 +20984,7 @@
         <v>-12540332.01268302</v>
       </c>
       <c r="H792">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="793" spans="1:8">
@@ -21010,7 +21010,7 @@
         <v>-12576581.13228302</v>
       </c>
       <c r="H793">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="794" spans="1:8">
@@ -21036,7 +21036,7 @@
         <v>-12543897.03408301</v>
       </c>
       <c r="H794">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="795" spans="1:8">
@@ -21062,7 +21062,7 @@
         <v>-12593633.75528301</v>
       </c>
       <c r="H795">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="796" spans="1:8">
@@ -21088,7 +21088,7 @@
         <v>-12565793.60638301</v>
       </c>
       <c r="H796">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="797" spans="1:8">
@@ -21114,7 +21114,7 @@
         <v>-12595667.96678302</v>
       </c>
       <c r="H797">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="798" spans="1:8">
@@ -21140,7 +21140,7 @@
         <v>-12634299.51128302</v>
       </c>
       <c r="H798">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="799" spans="1:8">
@@ -21166,7 +21166,7 @@
         <v>-12574287.63898301</v>
       </c>
       <c r="H799">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="800" spans="1:8">
@@ -21192,7 +21192,7 @@
         <v>-12596561.78688302</v>
       </c>
       <c r="H800">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="801" spans="1:8">
@@ -21218,7 +21218,7 @@
         <v>-12561057.24678301</v>
       </c>
       <c r="H801">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="802" spans="1:8">
@@ -21244,7 +21244,7 @@
         <v>-12599344.89248301</v>
       </c>
       <c r="H802">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="803" spans="1:8">
@@ -21270,7 +21270,7 @@
         <v>-12640118.38668302</v>
       </c>
       <c r="H803">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="804" spans="1:8">
@@ -21296,7 +21296,7 @@
         <v>-12609599.88188302</v>
       </c>
       <c r="H804">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="805" spans="1:8">
@@ -21322,7 +21322,7 @@
         <v>-12566126.67248302</v>
       </c>
       <c r="H805">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="806" spans="1:8">
@@ -21348,7 +21348,7 @@
         <v>-12532724.09218302</v>
       </c>
       <c r="H806">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="807" spans="1:8">
@@ -21374,7 +21374,7 @@
         <v>-12572577.69158302</v>
       </c>
       <c r="H807">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="808" spans="1:8">
@@ -21400,7 +21400,7 @@
         <v>-12529253.45298302</v>
       </c>
       <c r="H808">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="809" spans="1:8">
@@ -21426,7 +21426,7 @@
         <v>-12579801.52228302</v>
       </c>
       <c r="H809">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="810" spans="1:8">
@@ -21452,7 +21452,7 @@
         <v>-12599679.67178302</v>
       </c>
       <c r="H810">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="811" spans="1:8">
@@ -21478,7 +21478,7 @@
         <v>-12552161.41078302</v>
       </c>
       <c r="H811">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="812" spans="1:8">
@@ -21504,7 +21504,7 @@
         <v>-12598840.97598301</v>
       </c>
       <c r="H812">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="813" spans="1:8">
@@ -21530,7 +21530,7 @@
         <v>-12632548.05598301</v>
       </c>
       <c r="H813">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="814" spans="1:8">
@@ -21556,7 +21556,7 @@
         <v>-12671577.49218301</v>
       </c>
       <c r="H814">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="815" spans="1:8">
@@ -21582,7 +21582,7 @@
         <v>-12622209.66608302</v>
       </c>
       <c r="H815">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="816" spans="1:8">
@@ -21608,7 +21608,7 @@
         <v>-12667412.14038302</v>
       </c>
       <c r="H816">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="817" spans="1:8">
@@ -21634,7 +21634,7 @@
         <v>-12645250.38728302</v>
       </c>
       <c r="H817">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="818" spans="1:8">
@@ -21660,7 +21660,7 @@
         <v>-12645250.38728302</v>
       </c>
       <c r="H818">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="819" spans="1:8">
@@ -21686,7 +21686,7 @@
         <v>-12624392.76078302</v>
       </c>
       <c r="H819">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="820" spans="1:8">
@@ -21712,7 +21712,7 @@
         <v>-12588141.77358302</v>
       </c>
       <c r="H820">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="821" spans="1:8">
@@ -21738,7 +21738,7 @@
         <v>-12631637.35088302</v>
       </c>
       <c r="H821">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="822" spans="1:8">
@@ -21764,7 +21764,7 @@
         <v>-12576624.22468302</v>
       </c>
       <c r="H822">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="823" spans="1:8">
@@ -21790,7 +21790,7 @@
         <v>-12617607.36048302</v>
       </c>
       <c r="H823">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="824" spans="1:8">
@@ -21816,7 +21816,7 @@
         <v>-12576711.71048302</v>
       </c>
       <c r="H824">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="825" spans="1:8">
@@ -21842,7 +21842,7 @@
         <v>-12616256.56558302</v>
       </c>
       <c r="H825">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="826" spans="1:8">
@@ -21868,7 +21868,7 @@
         <v>-12570964.49118302</v>
       </c>
       <c r="H826">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="827" spans="1:8">
@@ -21894,7 +21894,7 @@
         <v>-12591048.40128302</v>
       </c>
       <c r="H827">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="828" spans="1:8">
@@ -21920,7 +21920,7 @@
         <v>-12643098.38548302</v>
       </c>
       <c r="H828">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="829" spans="1:8">
@@ -21946,7 +21946,7 @@
         <v>-12601387.35168302</v>
       </c>
       <c r="H829">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="830" spans="1:8">
@@ -21972,7 +21972,7 @@
         <v>-12601387.35168302</v>
       </c>
       <c r="H830">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="831" spans="1:8">
@@ -21998,7 +21998,7 @@
         <v>-12648920.38458302</v>
       </c>
       <c r="H831">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="832" spans="1:8">
@@ -22024,7 +22024,7 @@
         <v>-12611132.01148302</v>
       </c>
       <c r="H832">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="833" spans="1:8">
@@ -22050,7 +22050,7 @@
         <v>-12569465.40698302</v>
       </c>
       <c r="H833">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="834" spans="1:8">
@@ -22076,7 +22076,7 @@
         <v>-12619131.66278302</v>
       </c>
       <c r="H834">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="835" spans="1:8">
@@ -22102,7 +22102,7 @@
         <v>-12660497.44088302</v>
       </c>
       <c r="H835">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="836" spans="1:8">
@@ -22128,7 +22128,7 @@
         <v>-12635873.16848302</v>
       </c>
       <c r="H836">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="837" spans="1:8">
@@ -22154,7 +22154,7 @@
         <v>-12700404.00698302</v>
       </c>
       <c r="H837">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="838" spans="1:8">
@@ -22180,7 +22180,7 @@
         <v>-12747562.31168302</v>
       </c>
       <c r="H838">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="839" spans="1:8">
@@ -22206,7 +22206,7 @@
         <v>-12702091.63858302</v>
       </c>
       <c r="H839">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="840" spans="1:8">
@@ -22232,7 +22232,7 @@
         <v>-12678947.77078302</v>
       </c>
       <c r="H840">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="841" spans="1:8">
@@ -22258,7 +22258,7 @@
         <v>-12678947.77078302</v>
       </c>
       <c r="H841">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="842" spans="1:8">
@@ -22284,7 +22284,7 @@
         <v>-12722001.96898302</v>
       </c>
       <c r="H842">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="843" spans="1:8">
@@ -22310,7 +22310,7 @@
         <v>-12676358.21398302</v>
       </c>
       <c r="H843">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="844" spans="1:8">
@@ -22336,7 +22336,7 @@
         <v>-12659508.84408302</v>
       </c>
       <c r="H844">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="845" spans="1:8">
@@ -22362,7 +22362,7 @@
         <v>-12587782.89548302</v>
       </c>
       <c r="H845">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="846" spans="1:8">
@@ -22388,7 +22388,7 @@
         <v>-12630258.20908302</v>
       </c>
       <c r="H846">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="847" spans="1:8">
@@ -22414,7 +22414,7 @@
         <v>-12650014.41438302</v>
       </c>
       <c r="H847">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="848" spans="1:8">
@@ -22440,7 +22440,7 @@
         <v>-12712323.90898302</v>
       </c>
       <c r="H848">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="849" spans="1:8">
@@ -22466,7 +22466,7 @@
         <v>-12658401.04428302</v>
       </c>
       <c r="H849">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="850" spans="1:8">
@@ -22492,7 +22492,7 @@
         <v>-12697468.14508302</v>
       </c>
       <c r="H850">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="851" spans="1:8">
@@ -22518,7 +22518,7 @@
         <v>-12666608.23918302</v>
       </c>
       <c r="H851">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="852" spans="1:8">
@@ -22544,7 +22544,7 @@
         <v>-12622872.87078302</v>
       </c>
       <c r="H852">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="853" spans="1:8">
@@ -22570,7 +22570,7 @@
         <v>-12670698.84828302</v>
       </c>
       <c r="H853">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="854" spans="1:8">
@@ -22596,7 +22596,7 @@
         <v>-12637253.45908302</v>
       </c>
       <c r="H854">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="855" spans="1:8">
@@ -22622,7 +22622,7 @@
         <v>-12637253.45908302</v>
       </c>
       <c r="H855">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="856" spans="1:8">
@@ -22648,7 +22648,7 @@
         <v>-12684456.43758302</v>
       </c>
       <c r="H856">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="857" spans="1:8">
@@ -22674,7 +22674,7 @@
         <v>-12735666.27088302</v>
       </c>
       <c r="H857">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="858" spans="1:8">
@@ -22700,7 +22700,7 @@
         <v>-13881207.60388302</v>
       </c>
       <c r="H858">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="859" spans="1:8">
@@ -22726,7 +22726,7 @@
         <v>-14451230.09372612</v>
       </c>
       <c r="H859">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="860" spans="1:8">
@@ -22752,7 +22752,7 @@
         <v>-14432731.96832612</v>
       </c>
       <c r="H860">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="861" spans="1:8">
@@ -22778,7 +22778,7 @@
         <v>-14487452.70802612</v>
       </c>
       <c r="H861">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="862" spans="1:8">
@@ -22804,7 +22804,7 @@
         <v>-14461231.05122612</v>
       </c>
       <c r="H862">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="863" spans="1:8">
@@ -22830,7 +22830,7 @@
         <v>-14511945.43552612</v>
       </c>
       <c r="H863">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="864" spans="1:8">
@@ -22856,7 +22856,7 @@
         <v>-14221273.35622612</v>
       </c>
       <c r="H864">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="865" spans="1:8">
@@ -22882,7 +22882,7 @@
         <v>-14175236.98352612</v>
       </c>
       <c r="H865">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="866" spans="1:8">
@@ -22908,7 +22908,7 @@
         <v>-14061793.53212612</v>
       </c>
       <c r="H866">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="867" spans="1:8">
@@ -23064,7 +23064,7 @@
         <v>-13729554.94612612</v>
       </c>
       <c r="H872">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="873" spans="1:8">
@@ -24286,7 +24286,7 @@
         <v>-14283761.63392612</v>
       </c>
       <c r="H919">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="920" spans="1:8">
@@ -24312,7 +24312,7 @@
         <v>-14331231.94072612</v>
       </c>
       <c r="H920">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="921" spans="1:8">
@@ -24338,7 +24338,7 @@
         <v>-14287901.07362612</v>
       </c>
       <c r="H921">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="922" spans="1:8">
@@ -24364,7 +24364,7 @@
         <v>-14311045.67622612</v>
       </c>
       <c r="H922">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="923" spans="1:8">
@@ -24390,7 +24390,7 @@
         <v>-14216311.12822612</v>
       </c>
       <c r="H923">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="924" spans="1:8">
@@ -24442,7 +24442,7 @@
         <v>-14333429.05072613</v>
       </c>
       <c r="H925">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="926" spans="1:8">
@@ -24884,7 +24884,7 @@
         <v>-14132251.78542612</v>
       </c>
       <c r="H942">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="943" spans="1:8">
@@ -25274,7 +25274,7 @@
         <v>-14036509.19562612</v>
       </c>
       <c r="H957">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="958" spans="1:8">
@@ -25794,7 +25794,7 @@
         <v>-14082152.69262612</v>
       </c>
       <c r="H977">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="978" spans="1:8">
@@ -25820,7 +25820,7 @@
         <v>-14012880.10292612</v>
       </c>
       <c r="H978">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="979" spans="1:8">
@@ -25846,7 +25846,7 @@
         <v>-14030722.64512612</v>
       </c>
       <c r="H979">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="980" spans="1:8">
@@ -25872,7 +25872,7 @@
         <v>-13991275.01662612</v>
       </c>
       <c r="H980">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="981" spans="1:8">
@@ -25898,7 +25898,7 @@
         <v>-13946880.70102612</v>
       </c>
       <c r="H981">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="982" spans="1:8">
@@ -25924,7 +25924,7 @@
         <v>-13984619.29532612</v>
       </c>
       <c r="H982">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="983" spans="1:8">
@@ -25950,7 +25950,7 @@
         <v>-13939868.61582612</v>
       </c>
       <c r="H983">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="984" spans="1:8">
@@ -25976,7 +25976,7 @@
         <v>-13919350.23252612</v>
       </c>
       <c r="H984">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="985" spans="1:8">
@@ -26002,7 +26002,7 @@
         <v>-13964062.70242612</v>
       </c>
       <c r="H985">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="986" spans="1:8">
@@ -26028,7 +26028,7 @@
         <v>-14029506.72332612</v>
       </c>
       <c r="H986">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="987" spans="1:8">
@@ -26054,7 +26054,7 @@
         <v>-13985080.19692612</v>
       </c>
       <c r="H987">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="988" spans="1:8">
@@ -26080,7 +26080,7 @@
         <v>-13963244.31662612</v>
       </c>
       <c r="H988">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="989" spans="1:8">
@@ -27276,7 +27276,7 @@
         <v>-14845720.17262612</v>
       </c>
       <c r="H1034">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1035" spans="1:8">
@@ -27302,7 +27302,7 @@
         <v>-14895100.55502612</v>
       </c>
       <c r="H1035">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1036" spans="1:8">
@@ -27328,7 +27328,7 @@
         <v>-14851090.42362612</v>
       </c>
       <c r="H1036">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1037" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-19 DAC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-19 DAC ohlcv.xlsx
@@ -12092,7 +12092,7 @@
         <v>-5260791.456251557</v>
       </c>
       <c r="H450">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>-5260791.456251557</v>
       </c>
       <c r="H451">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>-5298189.062551557</v>
       </c>
       <c r="H452">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>-5237152.655251557</v>
       </c>
       <c r="H453">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>-5297142.145351557</v>
       </c>
       <c r="H454">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>-5339281.335551557</v>
       </c>
       <c r="H455">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>-5182506.246151557</v>
       </c>
       <c r="H456">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>-5002242.700051557</v>
       </c>
       <c r="H457">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>-3300493.0872256</v>
       </c>
       <c r="H463">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>-3778681.7666256</v>
       </c>
       <c r="H464">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>-3836610.7880256</v>
       </c>
       <c r="H465">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>-3740410.9593256</v>
       </c>
       <c r="H468">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>-3794853.2897256</v>
       </c>
       <c r="H469">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>-4673197.9664256</v>
       </c>
       <c r="H470">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>-6066603.2904256</v>
       </c>
       <c r="H471">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>-11747301.5855256</v>
       </c>
       <c r="H474">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>-9878017.165725598</v>
       </c>
       <c r="H475">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>-9328045.546225598</v>
       </c>
       <c r="H476">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>-9956326.907225598</v>
       </c>
       <c r="H477">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>-9916550.170525597</v>
       </c>
       <c r="H478">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>-11025967.9396256</v>
       </c>
       <c r="H484">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13002,7 +13002,7 @@
         <v>-11093263.6868256</v>
       </c>
       <c r="H485">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -13028,7 +13028,7 @@
         <v>-10906234.49952612</v>
       </c>
       <c r="H486">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -13054,7 +13054,7 @@
         <v>-10952937.77232612</v>
       </c>
       <c r="H487">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -17630,7 +17630,7 @@
         <v>-12757719.21602611</v>
       </c>
       <c r="H663">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="664" spans="1:8">
@@ -17656,7 +17656,7 @@
         <v>-12710690.72512611</v>
       </c>
       <c r="H664">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="665" spans="1:8">
@@ -17734,7 +17734,7 @@
         <v>-12710690.72512611</v>
       </c>
       <c r="H667">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="668" spans="1:8">
@@ -17760,7 +17760,7 @@
         <v>-12710690.72512611</v>
       </c>
       <c r="H668">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="669" spans="1:8">
@@ -17786,7 +17786,7 @@
         <v>-12710690.72512611</v>
       </c>
       <c r="H669">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="670" spans="1:8">
@@ -17812,7 +17812,7 @@
         <v>-12710690.72512611</v>
       </c>
       <c r="H670">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="671" spans="1:8">
@@ -17838,7 +17838,7 @@
         <v>-12710690.72512611</v>
       </c>
       <c r="H671">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="672" spans="1:8">
@@ -17864,7 +17864,7 @@
         <v>-12710690.72512611</v>
       </c>
       <c r="H672">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="673" spans="1:8">
@@ -17890,7 +17890,7 @@
         <v>-12710690.72512611</v>
       </c>
       <c r="H673">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="674" spans="1:8">
@@ -17916,7 +17916,7 @@
         <v>-12710690.72512611</v>
       </c>
       <c r="H674">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="675" spans="1:8">
@@ -17942,7 +17942,7 @@
         <v>-12710690.72512611</v>
       </c>
       <c r="H675">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="676" spans="1:8">
@@ -17968,7 +17968,7 @@
         <v>-12710690.72512611</v>
       </c>
       <c r="H676">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="677" spans="1:8">
@@ -17994,7 +17994,7 @@
         <v>-12710690.72512611</v>
       </c>
       <c r="H677">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="678" spans="1:8">
@@ -18020,7 +18020,7 @@
         <v>-12710690.72512611</v>
       </c>
       <c r="H678">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="679" spans="1:8">
@@ -18046,7 +18046,7 @@
         <v>-12710690.72512611</v>
       </c>
       <c r="H679">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="680" spans="1:8">
@@ -18072,7 +18072,7 @@
         <v>-12710690.72512611</v>
       </c>
       <c r="H680">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="681" spans="1:8">
@@ -18098,7 +18098,7 @@
         <v>-12710690.72512611</v>
       </c>
       <c r="H681">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="682" spans="1:8">
@@ -18124,7 +18124,7 @@
         <v>-12710690.72512611</v>
       </c>
       <c r="H682">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="683" spans="1:8">
@@ -18150,7 +18150,7 @@
         <v>-12710690.72512611</v>
       </c>
       <c r="H683">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="684" spans="1:8">
@@ -18176,7 +18176,7 @@
         <v>-12710690.72512611</v>
       </c>
       <c r="H684">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="685" spans="1:8">
@@ -18202,7 +18202,7 @@
         <v>-12710690.72512611</v>
       </c>
       <c r="H685">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="686" spans="1:8">
@@ -18228,7 +18228,7 @@
         <v>-12710690.72512611</v>
       </c>
       <c r="H686">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="687" spans="1:8">
@@ -18254,7 +18254,7 @@
         <v>-12710690.72512611</v>
       </c>
       <c r="H687">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="688" spans="1:8">
@@ -18280,7 +18280,7 @@
         <v>-12710690.72512611</v>
       </c>
       <c r="H688">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="689" spans="1:8">
@@ -18306,7 +18306,7 @@
         <v>-12710690.72512611</v>
       </c>
       <c r="H689">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="690" spans="1:8">
@@ -18332,7 +18332,7 @@
         <v>-12710690.72512611</v>
       </c>
       <c r="H690">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="691" spans="1:8">
@@ -18358,7 +18358,7 @@
         <v>-12710690.72512611</v>
       </c>
       <c r="H691">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="692" spans="1:8">
@@ -18384,7 +18384,7 @@
         <v>-12710690.72512611</v>
       </c>
       <c r="H692">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="693" spans="1:8">
@@ -18410,7 +18410,7 @@
         <v>-12710690.72512611</v>
       </c>
       <c r="H693">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="694" spans="1:8">
@@ -18436,7 +18436,7 @@
         <v>-12710690.72512611</v>
       </c>
       <c r="H694">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="695" spans="1:8">
@@ -18462,7 +18462,7 @@
         <v>-12710690.72512611</v>
       </c>
       <c r="H695">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="696" spans="1:8">
@@ -18488,7 +18488,7 @@
         <v>-12710690.72512611</v>
       </c>
       <c r="H696">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="697" spans="1:8">
@@ -18514,7 +18514,7 @@
         <v>-12710690.72512611</v>
       </c>
       <c r="H697">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="698" spans="1:8">
@@ -18540,7 +18540,7 @@
         <v>-12710690.72512611</v>
       </c>
       <c r="H698">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="699" spans="1:8">
@@ -18566,7 +18566,7 @@
         <v>-12710690.72512611</v>
       </c>
       <c r="H699">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="700" spans="1:8">
@@ -18592,7 +18592,7 @@
         <v>-12710690.72512611</v>
       </c>
       <c r="H700">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="701" spans="1:8">
@@ -18618,7 +18618,7 @@
         <v>-12710690.72512611</v>
       </c>
       <c r="H701">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="702" spans="1:8">
@@ -18644,7 +18644,7 @@
         <v>-12710690.72512611</v>
       </c>
       <c r="H702">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="703" spans="1:8">
@@ -18670,7 +18670,7 @@
         <v>-12710690.72512611</v>
       </c>
       <c r="H703">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="704" spans="1:8">
@@ -18696,7 +18696,7 @@
         <v>-12710690.72512611</v>
       </c>
       <c r="H704">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="705" spans="1:8">
@@ -18748,7 +18748,7 @@
         <v>-12706027.89568301</v>
       </c>
       <c r="H706">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="707" spans="1:8">
@@ -18930,7 +18930,7 @@
         <v>-12770779.63558301</v>
       </c>
       <c r="H713">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="714" spans="1:8">
@@ -18956,7 +18956,7 @@
         <v>-12737669.51068301</v>
       </c>
       <c r="H714">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="715" spans="1:8">
@@ -18982,7 +18982,7 @@
         <v>-12785574.84948301</v>
       </c>
       <c r="H715">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="716" spans="1:8">
@@ -19008,7 +19008,7 @@
         <v>-12836272.90378301</v>
       </c>
       <c r="H716">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="717" spans="1:8">
@@ -19034,7 +19034,7 @@
         <v>-12793705.82518301</v>
       </c>
       <c r="H717">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="718" spans="1:8">
@@ -19060,7 +19060,7 @@
         <v>-12842004.57828301</v>
       </c>
       <c r="H718">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="719" spans="1:8">
@@ -19086,7 +19086,7 @@
         <v>-12814176.45368301</v>
       </c>
       <c r="H719">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="720" spans="1:8">
@@ -19112,7 +19112,7 @@
         <v>-12863995.38888301</v>
       </c>
       <c r="H720">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="721" spans="1:8">
@@ -19138,7 +19138,7 @@
         <v>-12816955.93398301</v>
       </c>
       <c r="H721">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="722" spans="1:8">
@@ -19164,7 +19164,7 @@
         <v>-12773091.96878301</v>
       </c>
       <c r="H722">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="723" spans="1:8">
@@ -19190,7 +19190,7 @@
         <v>-12816538.27728301</v>
       </c>
       <c r="H723">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="724" spans="1:8">
@@ -19216,7 +19216,7 @@
         <v>-12771935.39808301</v>
       </c>
       <c r="H724">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="725" spans="1:8">
@@ -19242,7 +19242,7 @@
         <v>-12809971.94578301</v>
       </c>
       <c r="H725">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="726" spans="1:8">
@@ -19268,7 +19268,7 @@
         <v>-12748708.69358301</v>
       </c>
       <c r="H726">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="727" spans="1:8">
@@ -19294,7 +19294,7 @@
         <v>-12716089.05728301</v>
       </c>
       <c r="H727">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="728" spans="1:8">
@@ -19320,7 +19320,7 @@
         <v>-12855725.64848301</v>
       </c>
       <c r="H728">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="729" spans="1:8">
@@ -19346,7 +19346,7 @@
         <v>-12894722.64818301</v>
       </c>
       <c r="H729">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="730" spans="1:8">
@@ -19372,7 +19372,7 @@
         <v>-12843556.61458301</v>
       </c>
       <c r="H730">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="731" spans="1:8">
@@ -19398,7 +19398,7 @@
         <v>-12920530.25858301</v>
       </c>
       <c r="H731">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="732" spans="1:8">
@@ -19424,7 +19424,7 @@
         <v>-12876087.96448301</v>
       </c>
       <c r="H732">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="733" spans="1:8">
@@ -19450,7 +19450,7 @@
         <v>-12852648.08368301</v>
       </c>
       <c r="H733">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="734" spans="1:8">
@@ -19476,7 +19476,7 @@
         <v>-12886412.81758301</v>
       </c>
       <c r="H734">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="735" spans="1:8">
@@ -19502,7 +19502,7 @@
         <v>-12849685.71068301</v>
       </c>
       <c r="H735">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="736" spans="1:8">
@@ -19528,7 +19528,7 @@
         <v>-12849685.71068301</v>
       </c>
       <c r="H736">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="737" spans="1:8">
@@ -19554,7 +19554,7 @@
         <v>-12877099.53198301</v>
       </c>
       <c r="H737">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="738" spans="1:8">
@@ -19580,7 +19580,7 @@
         <v>-12834086.73678301</v>
       </c>
       <c r="H738">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="739" spans="1:8">
@@ -19606,7 +19606,7 @@
         <v>-12855998.34808301</v>
       </c>
       <c r="H739">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="740" spans="1:8">
@@ -19632,7 +19632,7 @@
         <v>-12797465.94878301</v>
       </c>
       <c r="H740">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="741" spans="1:8">
@@ -19658,7 +19658,7 @@
         <v>-12757151.18508301</v>
       </c>
       <c r="H741">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="742" spans="1:8">
@@ -19684,7 +19684,7 @@
         <v>-12783731.89318301</v>
       </c>
       <c r="H742">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="743" spans="1:8">
@@ -19710,7 +19710,7 @@
         <v>-12744121.55078301</v>
       </c>
       <c r="H743">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="744" spans="1:8">
@@ -19736,7 +19736,7 @@
         <v>-12805821.62298301</v>
       </c>
       <c r="H744">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="745" spans="1:8">
@@ -19762,7 +19762,7 @@
         <v>-12757974.33048301</v>
       </c>
       <c r="H745">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="746" spans="1:8">
@@ -19788,7 +19788,7 @@
         <v>-12815988.33938301</v>
       </c>
       <c r="H746">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="747" spans="1:8">
@@ -19814,7 +19814,7 @@
         <v>-12782475.74898301</v>
       </c>
       <c r="H747">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="748" spans="1:8">
@@ -19840,7 +19840,7 @@
         <v>-12738180.01698301</v>
       </c>
       <c r="H748">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="749" spans="1:8">
@@ -19866,7 +19866,7 @@
         <v>-12697349.33488301</v>
       </c>
       <c r="H749">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="750" spans="1:8">
@@ -19892,7 +19892,7 @@
         <v>-12746047.24448301</v>
       </c>
       <c r="H750">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="751" spans="1:8">
@@ -19918,7 +19918,7 @@
         <v>-12782219.07888301</v>
       </c>
       <c r="H751">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="752" spans="1:8">
@@ -19944,7 +19944,7 @@
         <v>-12763693.69748301</v>
       </c>
       <c r="H752">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="753" spans="1:8">
@@ -19970,7 +19970,7 @@
         <v>-12719870.60398301</v>
       </c>
       <c r="H753">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="754" spans="1:8">
@@ -19996,7 +19996,7 @@
         <v>-12754573.86578301</v>
       </c>
       <c r="H754">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="755" spans="1:8">
@@ -20022,7 +20022,7 @@
         <v>-12754573.86578301</v>
       </c>
       <c r="H755">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="756" spans="1:8">
@@ -20048,7 +20048,7 @@
         <v>-12710050.44278301</v>
       </c>
       <c r="H756">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="757" spans="1:8">
@@ -20074,7 +20074,7 @@
         <v>-12710050.44278301</v>
       </c>
       <c r="H757">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="758" spans="1:8">
@@ -20100,7 +20100,7 @@
         <v>-12653906.01158301</v>
       </c>
       <c r="H758">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="759" spans="1:8">
@@ -20126,7 +20126,7 @@
         <v>-12609995.63158301</v>
       </c>
       <c r="H759">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="760" spans="1:8">
@@ -20152,7 +20152,7 @@
         <v>-12625435.56018301</v>
       </c>
       <c r="H760">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="761" spans="1:8">
@@ -20178,7 +20178,7 @@
         <v>-12577886.30818301</v>
       </c>
       <c r="H761">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="762" spans="1:8">
@@ -20204,7 +20204,7 @@
         <v>-12624464.95828301</v>
       </c>
       <c r="H762">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="763" spans="1:8">
@@ -20230,7 +20230,7 @@
         <v>-12570051.56558301</v>
       </c>
       <c r="H763">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="764" spans="1:8">
@@ -20256,7 +20256,7 @@
         <v>-12570051.56558301</v>
       </c>
       <c r="H764">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="765" spans="1:8">
@@ -20282,7 +20282,7 @@
         <v>-12570051.56558301</v>
       </c>
       <c r="H765">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="766" spans="1:8">
@@ -20308,7 +20308,7 @@
         <v>-12520728.68378301</v>
       </c>
       <c r="H766">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="767" spans="1:8">
@@ -20334,7 +20334,7 @@
         <v>-12497593.72938301</v>
       </c>
       <c r="H767">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="768" spans="1:8">
@@ -20360,7 +20360,7 @@
         <v>-12537655.77438301</v>
       </c>
       <c r="H768">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="769" spans="1:8">
@@ -20386,7 +20386,7 @@
         <v>-12492755.72308301</v>
       </c>
       <c r="H769">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="770" spans="1:8">
@@ -20412,7 +20412,7 @@
         <v>-12530017.32478301</v>
       </c>
       <c r="H770">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="771" spans="1:8">
@@ -20438,7 +20438,7 @@
         <v>-12568314.43768301</v>
       </c>
       <c r="H771">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="772" spans="1:8">
@@ -20464,7 +20464,7 @@
         <v>-12609705.49338301</v>
       </c>
       <c r="H772">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="773" spans="1:8">
@@ -20490,7 +20490,7 @@
         <v>-12568320.79078301</v>
       </c>
       <c r="H773">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="774" spans="1:8">
@@ -20516,7 +20516,7 @@
         <v>-12613219.06718301</v>
       </c>
       <c r="H774">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="775" spans="1:8">
@@ -20542,7 +20542,7 @@
         <v>-12613219.06718301</v>
       </c>
       <c r="H775">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="776" spans="1:8">
@@ -20568,7 +20568,7 @@
         <v>-12568033.07498301</v>
       </c>
       <c r="H776">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="777" spans="1:8">
@@ -20594,7 +20594,7 @@
         <v>-12525476.89798301</v>
       </c>
       <c r="H777">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="778" spans="1:8">
@@ -20620,7 +20620,7 @@
         <v>-12554658.87478301</v>
       </c>
       <c r="H778">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="779" spans="1:8">
@@ -20646,7 +20646,7 @@
         <v>-12539067.41278302</v>
       </c>
       <c r="H779">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="780" spans="1:8">
@@ -20672,7 +20672,7 @@
         <v>-12495896.65058302</v>
       </c>
       <c r="H780">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="781" spans="1:8">
@@ -20698,7 +20698,7 @@
         <v>-12455938.52488302</v>
       </c>
       <c r="H781">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="782" spans="1:8">
@@ -20724,7 +20724,7 @@
         <v>-12502635.91758301</v>
       </c>
       <c r="H782">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="783" spans="1:8">
@@ -20750,7 +20750,7 @@
         <v>-12548419.91698301</v>
       </c>
       <c r="H783">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="784" spans="1:8">
@@ -20776,7 +20776,7 @@
         <v>-12579859.58588301</v>
       </c>
       <c r="H784">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="785" spans="1:8">
@@ -20802,7 +20802,7 @@
         <v>-12536925.62078301</v>
       </c>
       <c r="H785">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="786" spans="1:8">
@@ -20828,7 +20828,7 @@
         <v>-12536925.62078301</v>
       </c>
       <c r="H786">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="787" spans="1:8">
@@ -20854,7 +20854,7 @@
         <v>-12482216.39678301</v>
       </c>
       <c r="H787">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="788" spans="1:8">
@@ -20880,7 +20880,7 @@
         <v>-12525777.70908302</v>
       </c>
       <c r="H788">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="789" spans="1:8">
@@ -20906,7 +20906,7 @@
         <v>-12556528.93408301</v>
       </c>
       <c r="H789">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="790" spans="1:8">
@@ -20932,7 +20932,7 @@
         <v>-12517828.43398301</v>
       </c>
       <c r="H790">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="791" spans="1:8">
@@ -20958,7 +20958,7 @@
         <v>-12566059.67048302</v>
       </c>
       <c r="H791">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="792" spans="1:8">
@@ -20984,7 +20984,7 @@
         <v>-12540332.01268302</v>
       </c>
       <c r="H792">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="793" spans="1:8">
@@ -21010,7 +21010,7 @@
         <v>-12576581.13228302</v>
       </c>
       <c r="H793">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="794" spans="1:8">
@@ -21036,7 +21036,7 @@
         <v>-12543897.03408301</v>
       </c>
       <c r="H794">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="795" spans="1:8">
@@ -21062,7 +21062,7 @@
         <v>-12593633.75528301</v>
       </c>
       <c r="H795">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="796" spans="1:8">
@@ -21088,7 +21088,7 @@
         <v>-12565793.60638301</v>
       </c>
       <c r="H796">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="797" spans="1:8">
@@ -21114,7 +21114,7 @@
         <v>-12595667.96678302</v>
       </c>
       <c r="H797">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="798" spans="1:8">
@@ -21140,7 +21140,7 @@
         <v>-12634299.51128302</v>
       </c>
       <c r="H798">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="799" spans="1:8">
@@ -21166,7 +21166,7 @@
         <v>-12574287.63898301</v>
       </c>
       <c r="H799">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="800" spans="1:8">
@@ -21192,7 +21192,7 @@
         <v>-12596561.78688302</v>
       </c>
       <c r="H800">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="801" spans="1:8">
@@ -21218,7 +21218,7 @@
         <v>-12561057.24678301</v>
       </c>
       <c r="H801">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="802" spans="1:8">
@@ -21244,7 +21244,7 @@
         <v>-12599344.89248301</v>
       </c>
       <c r="H802">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="803" spans="1:8">
@@ -21270,7 +21270,7 @@
         <v>-12640118.38668302</v>
       </c>
       <c r="H803">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="804" spans="1:8">
@@ -21296,7 +21296,7 @@
         <v>-12609599.88188302</v>
       </c>
       <c r="H804">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="805" spans="1:8">
@@ -21322,7 +21322,7 @@
         <v>-12566126.67248302</v>
       </c>
       <c r="H805">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="806" spans="1:8">
@@ -21348,7 +21348,7 @@
         <v>-12532724.09218302</v>
       </c>
       <c r="H806">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="807" spans="1:8">
@@ -21374,7 +21374,7 @@
         <v>-12572577.69158302</v>
       </c>
       <c r="H807">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="808" spans="1:8">
@@ -21400,7 +21400,7 @@
         <v>-12529253.45298302</v>
       </c>
       <c r="H808">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="809" spans="1:8">
@@ -21426,7 +21426,7 @@
         <v>-12579801.52228302</v>
       </c>
       <c r="H809">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="810" spans="1:8">
@@ -21452,7 +21452,7 @@
         <v>-12599679.67178302</v>
       </c>
       <c r="H810">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="811" spans="1:8">
@@ -21478,7 +21478,7 @@
         <v>-12552161.41078302</v>
       </c>
       <c r="H811">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="812" spans="1:8">
@@ -21504,7 +21504,7 @@
         <v>-12598840.97598301</v>
       </c>
       <c r="H812">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="813" spans="1:8">
@@ -21530,7 +21530,7 @@
         <v>-12632548.05598301</v>
       </c>
       <c r="H813">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="814" spans="1:8">
@@ -21556,7 +21556,7 @@
         <v>-12671577.49218301</v>
       </c>
       <c r="H814">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="815" spans="1:8">
@@ -21582,7 +21582,7 @@
         <v>-12622209.66608302</v>
       </c>
       <c r="H815">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="816" spans="1:8">
@@ -21608,7 +21608,7 @@
         <v>-12667412.14038302</v>
       </c>
       <c r="H816">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="817" spans="1:8">
@@ -21634,7 +21634,7 @@
         <v>-12645250.38728302</v>
       </c>
       <c r="H817">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="818" spans="1:8">
@@ -21660,7 +21660,7 @@
         <v>-12645250.38728302</v>
       </c>
       <c r="H818">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="819" spans="1:8">
@@ -21686,7 +21686,7 @@
         <v>-12624392.76078302</v>
       </c>
       <c r="H819">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="820" spans="1:8">
@@ -21712,7 +21712,7 @@
         <v>-12588141.77358302</v>
       </c>
       <c r="H820">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="821" spans="1:8">
@@ -21738,7 +21738,7 @@
         <v>-12631637.35088302</v>
       </c>
       <c r="H821">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="822" spans="1:8">
@@ -21764,7 +21764,7 @@
         <v>-12576624.22468302</v>
       </c>
       <c r="H822">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="823" spans="1:8">
@@ -21790,7 +21790,7 @@
         <v>-12617607.36048302</v>
       </c>
       <c r="H823">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="824" spans="1:8">
@@ -21816,7 +21816,7 @@
         <v>-12576711.71048302</v>
       </c>
       <c r="H824">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="825" spans="1:8">
@@ -21842,7 +21842,7 @@
         <v>-12616256.56558302</v>
       </c>
       <c r="H825">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="826" spans="1:8">
@@ -21868,7 +21868,7 @@
         <v>-12570964.49118302</v>
       </c>
       <c r="H826">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="827" spans="1:8">
@@ -21894,7 +21894,7 @@
         <v>-12591048.40128302</v>
       </c>
       <c r="H827">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="828" spans="1:8">
@@ -21920,7 +21920,7 @@
         <v>-12643098.38548302</v>
       </c>
       <c r="H828">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="829" spans="1:8">
@@ -21946,7 +21946,7 @@
         <v>-12601387.35168302</v>
       </c>
       <c r="H829">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="830" spans="1:8">
@@ -21972,7 +21972,7 @@
         <v>-12601387.35168302</v>
       </c>
       <c r="H830">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="831" spans="1:8">
@@ -21998,7 +21998,7 @@
         <v>-12648920.38458302</v>
       </c>
       <c r="H831">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="832" spans="1:8">
@@ -22024,7 +22024,7 @@
         <v>-12611132.01148302</v>
       </c>
       <c r="H832">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="833" spans="1:8">
@@ -22050,7 +22050,7 @@
         <v>-12569465.40698302</v>
       </c>
       <c r="H833">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="834" spans="1:8">
@@ -22076,7 +22076,7 @@
         <v>-12619131.66278302</v>
       </c>
       <c r="H834">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="835" spans="1:8">
@@ -22102,7 +22102,7 @@
         <v>-12660497.44088302</v>
       </c>
       <c r="H835">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="836" spans="1:8">
@@ -22128,7 +22128,7 @@
         <v>-12635873.16848302</v>
       </c>
       <c r="H836">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="837" spans="1:8">
@@ -22154,7 +22154,7 @@
         <v>-12700404.00698302</v>
       </c>
       <c r="H837">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="838" spans="1:8">
@@ -22180,7 +22180,7 @@
         <v>-12747562.31168302</v>
       </c>
       <c r="H838">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="839" spans="1:8">
@@ -22206,7 +22206,7 @@
         <v>-12702091.63858302</v>
       </c>
       <c r="H839">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="840" spans="1:8">
@@ -22232,7 +22232,7 @@
         <v>-12678947.77078302</v>
       </c>
       <c r="H840">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="841" spans="1:8">
@@ -22258,7 +22258,7 @@
         <v>-12678947.77078302</v>
       </c>
       <c r="H841">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="842" spans="1:8">
@@ -22284,7 +22284,7 @@
         <v>-12722001.96898302</v>
       </c>
       <c r="H842">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="843" spans="1:8">
@@ -22310,7 +22310,7 @@
         <v>-12676358.21398302</v>
       </c>
       <c r="H843">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="844" spans="1:8">
@@ -22336,7 +22336,7 @@
         <v>-12659508.84408302</v>
       </c>
       <c r="H844">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="845" spans="1:8">
@@ -22362,7 +22362,7 @@
         <v>-12587782.89548302</v>
       </c>
       <c r="H845">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="846" spans="1:8">
@@ -22388,7 +22388,7 @@
         <v>-12630258.20908302</v>
       </c>
       <c r="H846">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="847" spans="1:8">
@@ -22414,7 +22414,7 @@
         <v>-12650014.41438302</v>
       </c>
       <c r="H847">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="848" spans="1:8">
@@ -22440,7 +22440,7 @@
         <v>-12712323.90898302</v>
       </c>
       <c r="H848">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="849" spans="1:8">
@@ -22466,7 +22466,7 @@
         <v>-12658401.04428302</v>
       </c>
       <c r="H849">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="850" spans="1:8">
@@ -22492,7 +22492,7 @@
         <v>-12697468.14508302</v>
       </c>
       <c r="H850">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="851" spans="1:8">
@@ -22518,7 +22518,7 @@
         <v>-12666608.23918302</v>
       </c>
       <c r="H851">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="852" spans="1:8">
@@ -22544,7 +22544,7 @@
         <v>-12622872.87078302</v>
       </c>
       <c r="H852">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="853" spans="1:8">
@@ -22570,7 +22570,7 @@
         <v>-12670698.84828302</v>
       </c>
       <c r="H853">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="854" spans="1:8">
@@ -22596,7 +22596,7 @@
         <v>-12637253.45908302</v>
       </c>
       <c r="H854">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="855" spans="1:8">
@@ -22622,7 +22622,7 @@
         <v>-12637253.45908302</v>
       </c>
       <c r="H855">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="856" spans="1:8">
@@ -22648,7 +22648,7 @@
         <v>-12684456.43758302</v>
       </c>
       <c r="H856">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="857" spans="1:8">
@@ -22674,7 +22674,7 @@
         <v>-12735666.27088302</v>
       </c>
       <c r="H857">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="858" spans="1:8">
@@ -22700,7 +22700,7 @@
         <v>-13881207.60388302</v>
       </c>
       <c r="H858">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="859" spans="1:8">
@@ -22726,7 +22726,7 @@
         <v>-14451230.09372612</v>
       </c>
       <c r="H859">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="860" spans="1:8">
@@ -22752,7 +22752,7 @@
         <v>-14432731.96832612</v>
       </c>
       <c r="H860">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="861" spans="1:8">
@@ -22778,7 +22778,7 @@
         <v>-14487452.70802612</v>
       </c>
       <c r="H861">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="862" spans="1:8">
@@ -22804,7 +22804,7 @@
         <v>-14461231.05122612</v>
       </c>
       <c r="H862">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="863" spans="1:8">
@@ -22830,7 +22830,7 @@
         <v>-14511945.43552612</v>
       </c>
       <c r="H863">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="864" spans="1:8">
@@ -22856,7 +22856,7 @@
         <v>-14221273.35622612</v>
       </c>
       <c r="H864">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="865" spans="1:8">
@@ -22882,7 +22882,7 @@
         <v>-14175236.98352612</v>
       </c>
       <c r="H865">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="866" spans="1:8">
@@ -22908,7 +22908,7 @@
         <v>-14061793.53212612</v>
       </c>
       <c r="H866">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="867" spans="1:8">
@@ -23064,7 +23064,7 @@
         <v>-13729554.94612612</v>
       </c>
       <c r="H872">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="873" spans="1:8">
@@ -23376,7 +23376,7 @@
         <v>-13877672.47892612</v>
       </c>
       <c r="H884">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="885" spans="1:8">
@@ -23402,7 +23402,7 @@
         <v>-13877672.47892612</v>
       </c>
       <c r="H885">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="886" spans="1:8">
@@ -23428,7 +23428,7 @@
         <v>-13877672.47892612</v>
       </c>
       <c r="H886">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="887" spans="1:8">
@@ -23454,7 +23454,7 @@
         <v>-13877672.47892612</v>
       </c>
       <c r="H887">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="888" spans="1:8">
@@ -23480,7 +23480,7 @@
         <v>-13877672.47892612</v>
       </c>
       <c r="H888">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="889" spans="1:8">
@@ -23506,7 +23506,7 @@
         <v>-14117149.87162612</v>
       </c>
       <c r="H889">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="890" spans="1:8">
@@ -23532,7 +23532,7 @@
         <v>-14044990.71962612</v>
       </c>
       <c r="H890">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="891" spans="1:8">
@@ -23558,7 +23558,7 @@
         <v>-14003550.01862612</v>
       </c>
       <c r="H891">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="892" spans="1:8">
@@ -23584,7 +23584,7 @@
         <v>-13961400.63852612</v>
       </c>
       <c r="H892">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="893" spans="1:8">
@@ -23610,7 +23610,7 @@
         <v>-14001273.85322612</v>
       </c>
       <c r="H893">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="894" spans="1:8">
@@ -23662,7 +23662,7 @@
         <v>-14004446.71382612</v>
       </c>
       <c r="H895">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="896" spans="1:8">
@@ -23870,7 +23870,7 @@
         <v>-14205190.18322612</v>
       </c>
       <c r="H903">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="904" spans="1:8">
@@ -23896,7 +23896,7 @@
         <v>-14175381.17332612</v>
       </c>
       <c r="H904">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="905" spans="1:8">
@@ -23922,7 +23922,7 @@
         <v>-14147232.44072612</v>
       </c>
       <c r="H905">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="906" spans="1:8">
@@ -23948,7 +23948,7 @@
         <v>-14199189.21182612</v>
       </c>
       <c r="H906">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="907" spans="1:8">
@@ -23974,7 +23974,7 @@
         <v>-14173116.68102612</v>
       </c>
       <c r="H907">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="908" spans="1:8">
@@ -24104,7 +24104,7 @@
         <v>-14432105.20892612</v>
       </c>
       <c r="H912">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="913" spans="1:8">
@@ -24130,7 +24130,7 @@
         <v>-14352520.71802612</v>
       </c>
       <c r="H913">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="914" spans="1:8">
@@ -24156,7 +24156,7 @@
         <v>-14282784.03612612</v>
       </c>
       <c r="H914">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="915" spans="1:8">
@@ -24182,7 +24182,7 @@
         <v>-14282784.03612612</v>
       </c>
       <c r="H915">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="916" spans="1:8">
@@ -24208,7 +24208,7 @@
         <v>-14326275.33982612</v>
       </c>
       <c r="H916">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="917" spans="1:8">
@@ -24234,7 +24234,7 @@
         <v>-14272709.27152612</v>
       </c>
       <c r="H917">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="918" spans="1:8">
@@ -24260,7 +24260,7 @@
         <v>-14212483.07212612</v>
       </c>
       <c r="H918">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="919" spans="1:8">
@@ -24286,7 +24286,7 @@
         <v>-14283761.63392612</v>
       </c>
       <c r="H919">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="920" spans="1:8">
@@ -24312,7 +24312,7 @@
         <v>-14331231.94072612</v>
       </c>
       <c r="H920">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="921" spans="1:8">
@@ -24338,7 +24338,7 @@
         <v>-14287901.07362612</v>
       </c>
       <c r="H921">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="922" spans="1:8">
@@ -24364,7 +24364,7 @@
         <v>-14311045.67622612</v>
       </c>
       <c r="H922">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="923" spans="1:8">
@@ -24390,7 +24390,7 @@
         <v>-14216311.12822612</v>
       </c>
       <c r="H923">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="924" spans="1:8">
@@ -24442,7 +24442,7 @@
         <v>-14333429.05072613</v>
       </c>
       <c r="H925">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="926" spans="1:8">
@@ -24884,7 +24884,7 @@
         <v>-14132251.78542612</v>
       </c>
       <c r="H942">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="943" spans="1:8">
@@ -24962,7 +24962,7 @@
         <v>-14163114.28272612</v>
       </c>
       <c r="H945">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="946" spans="1:8">
@@ -25066,7 +25066,7 @@
         <v>-14163066.13832613</v>
       </c>
       <c r="H949">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="950" spans="1:8">
@@ -25248,7 +25248,7 @@
         <v>-14082885.81852612</v>
       </c>
       <c r="H956">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="957" spans="1:8">
@@ -25352,7 +25352,7 @@
         <v>-13975341.34782612</v>
       </c>
       <c r="H960">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="961" spans="1:8">
@@ -25378,7 +25378,7 @@
         <v>-14013745.79652612</v>
       </c>
       <c r="H961">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="962" spans="1:8">
@@ -25404,7 +25404,7 @@
         <v>-14013745.79652612</v>
       </c>
       <c r="H962">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="963" spans="1:8">
@@ -25430,7 +25430,7 @@
         <v>-14036349.60952612</v>
       </c>
       <c r="H963">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="964" spans="1:8">
@@ -25456,7 +25456,7 @@
         <v>-13999238.74442612</v>
       </c>
       <c r="H964">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="965" spans="1:8">
@@ -25482,7 +25482,7 @@
         <v>-13960641.45102612</v>
       </c>
       <c r="H965">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="966" spans="1:8">
@@ -25612,7 +25612,7 @@
         <v>-14062962.32872612</v>
       </c>
       <c r="H970">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="971" spans="1:8">
@@ -25716,7 +25716,7 @@
         <v>-14092399.24192612</v>
       </c>
       <c r="H974">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="975" spans="1:8">
@@ -25794,7 +25794,7 @@
         <v>-14082152.69262612</v>
       </c>
       <c r="H977">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="978" spans="1:8">
@@ -25820,7 +25820,7 @@
         <v>-14012880.10292612</v>
       </c>
       <c r="H978">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="979" spans="1:8">
@@ -25846,7 +25846,7 @@
         <v>-14030722.64512612</v>
       </c>
       <c r="H979">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="980" spans="1:8">
@@ -25924,7 +25924,7 @@
         <v>-13984619.29532612</v>
       </c>
       <c r="H982">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="983" spans="1:8">
@@ -25950,7 +25950,7 @@
         <v>-13939868.61582612</v>
       </c>
       <c r="H983">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="984" spans="1:8">
@@ -25976,7 +25976,7 @@
         <v>-13919350.23252612</v>
       </c>
       <c r="H984">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="985" spans="1:8">
@@ -26002,7 +26002,7 @@
         <v>-13964062.70242612</v>
       </c>
       <c r="H985">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="986" spans="1:8">
@@ -26028,7 +26028,7 @@
         <v>-14029506.72332612</v>
       </c>
       <c r="H986">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="987" spans="1:8">
@@ -26054,7 +26054,7 @@
         <v>-13985080.19692612</v>
       </c>
       <c r="H987">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="988" spans="1:8">
@@ -26080,7 +26080,7 @@
         <v>-13963244.31662612</v>
       </c>
       <c r="H988">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="989" spans="1:8">
@@ -26314,7 +26314,7 @@
         <v>-14089911.25762612</v>
       </c>
       <c r="H997">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="998" spans="1:8">
@@ -26340,7 +26340,7 @@
         <v>-14157547.05272612</v>
       </c>
       <c r="H998">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="999" spans="1:8">
@@ -26366,7 +26366,7 @@
         <v>-14202006.53932612</v>
       </c>
       <c r="H999">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1000" spans="1:8">
@@ -26392,7 +26392,7 @@
         <v>-14164945.80792612</v>
       </c>
       <c r="H1000">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1001" spans="1:8">
@@ -26418,7 +26418,7 @@
         <v>-14120209.38592612</v>
       </c>
       <c r="H1001">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1002" spans="1:8">
@@ -26444,7 +26444,7 @@
         <v>-14101841.15112612</v>
       </c>
       <c r="H1002">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1003" spans="1:8">
@@ -26522,7 +26522,7 @@
         <v>-14005798.61652612</v>
       </c>
       <c r="H1005">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1006" spans="1:8">
@@ -26548,7 +26548,7 @@
         <v>-14039821.17422612</v>
       </c>
       <c r="H1006">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1007" spans="1:8">
@@ -26574,7 +26574,7 @@
         <v>-14007408.15432612</v>
       </c>
       <c r="H1007">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1008" spans="1:8">
@@ -26600,7 +26600,7 @@
         <v>-14025518.98942612</v>
       </c>
       <c r="H1008">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1009" spans="1:8">
@@ -26626,7 +26626,7 @@
         <v>-13978951.84582612</v>
       </c>
       <c r="H1009">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1010" spans="1:8">
@@ -26652,7 +26652,7 @@
         <v>-14017567.16712612</v>
       </c>
       <c r="H1010">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1011" spans="1:8">
@@ -26782,7 +26782,7 @@
         <v>-13998549.45422612</v>
       </c>
       <c r="H1015">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1016" spans="1:8">
@@ -26808,7 +26808,7 @@
         <v>-14039662.55692612</v>
       </c>
       <c r="H1016">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1017" spans="1:8">
@@ -26834,7 +26834,7 @@
         <v>-14014395.98442612</v>
       </c>
       <c r="H1017">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1018" spans="1:8">
@@ -26860,7 +26860,7 @@
         <v>-13957799.00492612</v>
       </c>
       <c r="H1018">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1019" spans="1:8">
@@ -26886,7 +26886,7 @@
         <v>-13938039.67822612</v>
       </c>
       <c r="H1019">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1020" spans="1:8">
@@ -26912,7 +26912,7 @@
         <v>-14011669.61812612</v>
       </c>
       <c r="H1020">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1021" spans="1:8">
@@ -26938,7 +26938,7 @@
         <v>-13973543.76402612</v>
       </c>
       <c r="H1021">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1022" spans="1:8">
@@ -26964,7 +26964,7 @@
         <v>-14014653.71042612</v>
       </c>
       <c r="H1022">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1023" spans="1:8">
@@ -26990,7 +26990,7 @@
         <v>-14014653.71042612</v>
       </c>
       <c r="H1023">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1024" spans="1:8">
@@ -27016,7 +27016,7 @@
         <v>-13991515.76852612</v>
       </c>
       <c r="H1024">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1025" spans="1:8">
@@ -27042,7 +27042,7 @@
         <v>-14064712.29742612</v>
       </c>
       <c r="H1025">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1026" spans="1:8">
@@ -27068,7 +27068,7 @@
         <v>-14064712.29742612</v>
       </c>
       <c r="H1026">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1027" spans="1:8">
@@ -27094,7 +27094,7 @@
         <v>-14026329.45532612</v>
       </c>
       <c r="H1027">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1028" spans="1:8">
@@ -27120,7 +27120,7 @@
         <v>-13989804.16982612</v>
       </c>
       <c r="H1028">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1029" spans="1:8">
@@ -27146,7 +27146,7 @@
         <v>-14038320.11732612</v>
       </c>
       <c r="H1029">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1030" spans="1:8">
@@ -27172,7 +27172,7 @@
         <v>-13995744.57602612</v>
       </c>
       <c r="H1030">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1031" spans="1:8">
@@ -27198,7 +27198,7 @@
         <v>-14715460.40672612</v>
       </c>
       <c r="H1031">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1032" spans="1:8">
@@ -27224,7 +27224,7 @@
         <v>-14807174.17172612</v>
       </c>
       <c r="H1032">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1033" spans="1:8">
@@ -27250,7 +27250,7 @@
         <v>-14870567.56122612</v>
       </c>
       <c r="H1033">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1034" spans="1:8">
@@ -27276,7 +27276,7 @@
         <v>-14845720.17262612</v>
       </c>
       <c r="H1034">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1035" spans="1:8">
@@ -27302,7 +27302,7 @@
         <v>-14895100.55502612</v>
       </c>
       <c r="H1035">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1036" spans="1:8">
@@ -27328,7 +27328,7 @@
         <v>-14851090.42362612</v>
       </c>
       <c r="H1036">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1037" spans="1:8">
@@ -28628,7 +28628,7 @@
         <v>-13167866.95282612</v>
       </c>
       <c r="H1086">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1087" spans="1:8">
@@ -28654,7 +28654,7 @@
         <v>-13127022.55312612</v>
       </c>
       <c r="H1087">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1088" spans="1:8">
@@ -28680,7 +28680,7 @@
         <v>-13127022.55312612</v>
       </c>
       <c r="H1088">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1089" spans="1:8">
@@ -28706,7 +28706,7 @@
         <v>-13164970.30282612</v>
       </c>
       <c r="H1089">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1090" spans="1:8">
@@ -28732,7 +28732,7 @@
         <v>-13210657.11582612</v>
       </c>
       <c r="H1090">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1091" spans="1:8">
@@ -28758,7 +28758,7 @@
         <v>-13158315.01622612</v>
       </c>
       <c r="H1091">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1092" spans="1:8">
@@ -28784,7 +28784,7 @@
         <v>-13112509.64132612</v>
       </c>
       <c r="H1092">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1093" spans="1:8">
@@ -28810,7 +28810,7 @@
         <v>-13180985.25682612</v>
       </c>
       <c r="H1093">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1094" spans="1:8">
@@ -28836,7 +28836,7 @@
         <v>-13202577.00822612</v>
       </c>
       <c r="H1094">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1095" spans="1:8">
@@ -28862,7 +28862,7 @@
         <v>-13154216.63012612</v>
       </c>
       <c r="H1095">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1096" spans="1:8">
@@ -28888,7 +28888,7 @@
         <v>-13218812.28662612</v>
       </c>
       <c r="H1096">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1097" spans="1:8">
@@ -28914,7 +28914,7 @@
         <v>-13285835.49132612</v>
       </c>
       <c r="H1097">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1098" spans="1:8">
@@ -28940,7 +28940,7 @@
         <v>-13262987.60672612</v>
       </c>
       <c r="H1098">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1099" spans="1:8">
@@ -28966,7 +28966,7 @@
         <v>-13322428.73582612</v>
       </c>
       <c r="H1099">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1100" spans="1:8">
@@ -28992,7 +28992,7 @@
         <v>-13278388.60782612</v>
       </c>
       <c r="H1100">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1101" spans="1:8">
@@ -29018,7 +29018,7 @@
         <v>-13236626.25392612</v>
       </c>
       <c r="H1101">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1102" spans="1:8">
@@ -29044,7 +29044,7 @@
         <v>-13236626.25392612</v>
       </c>
       <c r="H1102">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1103" spans="1:8">
@@ -29096,7 +29096,7 @@
         <v>-13243027.97742612</v>
       </c>
       <c r="H1104">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1105" spans="1:8">
@@ -29122,7 +29122,7 @@
         <v>-13277648.11442612</v>
       </c>
       <c r="H1105">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1106" spans="1:8">
@@ -29148,7 +29148,7 @@
         <v>-13236231.71782612</v>
       </c>
       <c r="H1106">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1107" spans="1:8">
@@ -29174,7 +29174,7 @@
         <v>-13275693.31282612</v>
       </c>
       <c r="H1107">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1108" spans="1:8">
@@ -29200,7 +29200,7 @@
         <v>-13315644.56092612</v>
       </c>
       <c r="H1108">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1109" spans="1:8">
@@ -29226,7 +29226,7 @@
         <v>-13276012.26852612</v>
       </c>
       <c r="H1109">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1110" spans="1:8">
@@ -29278,7 +29278,7 @@
         <v>-13280239.45202612</v>
       </c>
       <c r="H1111">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1112" spans="1:8">
@@ -29304,7 +29304,7 @@
         <v>-13280239.45202612</v>
       </c>
       <c r="H1112">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1113" spans="1:8">
@@ -29356,7 +29356,7 @@
         <v>-13286844.78002612</v>
       </c>
       <c r="H1114">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1115" spans="1:8">
@@ -29382,7 +29382,7 @@
         <v>-13058178.18252612</v>
       </c>
       <c r="H1115">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1116" spans="1:8">
@@ -29408,7 +29408,7 @@
         <v>-13094529.45822612</v>
       </c>
       <c r="H1116">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1117" spans="1:8">
@@ -29434,7 +29434,7 @@
         <v>-13136627.48772612</v>
       </c>
       <c r="H1117">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1118" spans="1:8">
@@ -29460,7 +29460,7 @@
         <v>-13078289.38742612</v>
       </c>
       <c r="H1118">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1119" spans="1:8">
@@ -29694,7 +29694,7 @@
         <v>-13177767.53292612</v>
       </c>
       <c r="H1127">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1128" spans="1:8">
@@ -29720,7 +29720,7 @@
         <v>-13138614.41842612</v>
       </c>
       <c r="H1128">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1129" spans="1:8">
@@ -30942,7 +30942,7 @@
         <v>-13208812.62442612</v>
       </c>
       <c r="H1175">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1176" spans="1:8">
@@ -30994,7 +30994,7 @@
         <v>-13217024.56452612</v>
       </c>
       <c r="H1177">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1178" spans="1:8">
@@ -31020,7 +31020,7 @@
         <v>-13258349.05792612</v>
       </c>
       <c r="H1178">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1179" spans="1:8">
@@ -31046,7 +31046,7 @@
         <v>-13215349.60052612</v>
       </c>
       <c r="H1179">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1180" spans="1:8">
@@ -31072,7 +31072,7 @@
         <v>-13253424.37152612</v>
       </c>
       <c r="H1180">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1181" spans="1:8">
@@ -31436,7 +31436,7 @@
         <v>-13195819.16372612</v>
       </c>
       <c r="H1194">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1195" spans="1:8">
@@ -31488,7 +31488,7 @@
         <v>-13360005.22172613</v>
       </c>
       <c r="H1196">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1197" spans="1:8">
@@ -31514,7 +31514,7 @@
         <v>-13360005.22172613</v>
       </c>
       <c r="H1197">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1198" spans="1:8">
@@ -31540,7 +31540,7 @@
         <v>-13360005.22172613</v>
       </c>
       <c r="H1198">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1199" spans="1:8">
@@ -31566,7 +31566,7 @@
         <v>-13305912.84382612</v>
       </c>
       <c r="H1199">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1200" spans="1:8">
@@ -31592,7 +31592,7 @@
         <v>-13348188.00882612</v>
       </c>
       <c r="H1200">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1201" spans="1:8">
@@ -31618,7 +31618,7 @@
         <v>-13395246.06772612</v>
       </c>
       <c r="H1201">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1202" spans="1:8">
@@ -31644,7 +31644,7 @@
         <v>-13435697.71762612</v>
       </c>
       <c r="H1202">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1203" spans="1:8">
@@ -31670,7 +31670,7 @@
         <v>-13394093.05082612</v>
       </c>
       <c r="H1203">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1204" spans="1:8">
@@ -31696,7 +31696,7 @@
         <v>-13355671.48012613</v>
       </c>
       <c r="H1204">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1205" spans="1:8">
@@ -31722,7 +31722,7 @@
         <v>-13421735.91972613</v>
       </c>
       <c r="H1205">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1206" spans="1:8">
@@ -31748,7 +31748,7 @@
         <v>-13399810.28082613</v>
       </c>
       <c r="H1206">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1207" spans="1:8">
@@ -31774,7 +31774,7 @@
         <v>-13446754.98752613</v>
       </c>
       <c r="H1207">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1208" spans="1:8">
@@ -31800,7 +31800,7 @@
         <v>-13410388.28762613</v>
       </c>
       <c r="H1208">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1209" spans="1:8">
@@ -31826,7 +31826,7 @@
         <v>-13457394.61952613</v>
       </c>
       <c r="H1209">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1210" spans="1:8">
@@ -31852,7 +31852,7 @@
         <v>-13494755.99262613</v>
       </c>
       <c r="H1210">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1211" spans="1:8">
@@ -31878,7 +31878,7 @@
         <v>-13524460.56272613</v>
       </c>
       <c r="H1211">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1212" spans="1:8">
@@ -31904,7 +31904,7 @@
         <v>-13500440.47362613</v>
       </c>
       <c r="H1212">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1213" spans="1:8">
@@ -31930,7 +31930,7 @@
         <v>-13550361.79792613</v>
       </c>
       <c r="H1213">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1214" spans="1:8">
@@ -31956,7 +31956,7 @@
         <v>-13510155.10202613</v>
       </c>
       <c r="H1214">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1215" spans="1:8">
@@ -31982,7 +31982,7 @@
         <v>-13548109.58922613</v>
       </c>
       <c r="H1215">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1216" spans="1:8">
@@ -32008,7 +32008,7 @@
         <v>-13499922.73152613</v>
       </c>
       <c r="H1216">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1217" spans="1:8">
@@ -32034,7 +32034,7 @@
         <v>-13547668.94042613</v>
       </c>
       <c r="H1217">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1218" spans="1:8">
@@ -32060,7 +32060,7 @@
         <v>-13585734.96242613</v>
       </c>
       <c r="H1218">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1219" spans="1:8">
@@ -32086,7 +32086,7 @@
         <v>-13540818.56662613</v>
       </c>
       <c r="H1219">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1220" spans="1:8">
@@ -32112,7 +32112,7 @@
         <v>-13588598.87722613</v>
       </c>
       <c r="H1220">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1221" spans="1:8">
@@ -32138,7 +32138,7 @@
         <v>-13542750.72842613</v>
       </c>
       <c r="H1221">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1222" spans="1:8">
@@ -32164,7 +32164,7 @@
         <v>-13653336.03272613</v>
       </c>
       <c r="H1222">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1223" spans="1:8">
@@ -32190,7 +32190,7 @@
         <v>-13614655.42952613</v>
       </c>
       <c r="H1223">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1224" spans="1:8">
@@ -32216,7 +32216,7 @@
         <v>-13597499.39162613</v>
       </c>
       <c r="H1224">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1225" spans="1:8">
@@ -32242,7 +32242,7 @@
         <v>-13641992.55612613</v>
       </c>
       <c r="H1225">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1226" spans="1:8">
@@ -32268,7 +32268,7 @@
         <v>-13613676.47862613</v>
       </c>
       <c r="H1226">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1227" spans="1:8">
@@ -32294,7 +32294,7 @@
         <v>-13569806.75842613</v>
       </c>
       <c r="H1227">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1228" spans="1:8">
@@ -32320,7 +32320,7 @@
         <v>-13631352.80072613</v>
       </c>
       <c r="H1228">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1229" spans="1:8">
@@ -32346,7 +32346,7 @@
         <v>-13585817.07282613</v>
       </c>
       <c r="H1229">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1230" spans="1:8">
@@ -32372,7 +32372,7 @@
         <v>-13585817.07282613</v>
       </c>
       <c r="H1230">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1231" spans="1:8">
@@ -32398,7 +32398,7 @@
         <v>-13525580.62822613</v>
       </c>
       <c r="H1231">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1232" spans="1:8">
@@ -32424,7 +32424,7 @@
         <v>-13622131.45312613</v>
       </c>
       <c r="H1232">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1233" spans="1:8">
@@ -32450,7 +32450,7 @@
         <v>-13635096.80412613</v>
       </c>
       <c r="H1233">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1234" spans="1:8">
@@ -32476,7 +32476,7 @@
         <v>-13596761.50852613</v>
       </c>
       <c r="H1234">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1235" spans="1:8">
@@ -32502,7 +32502,7 @@
         <v>-13632467.23392613</v>
       </c>
       <c r="H1235">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1236" spans="1:8">
@@ -32528,7 +32528,7 @@
         <v>-13679788.24192613</v>
       </c>
       <c r="H1236">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1237" spans="1:8">
@@ -32554,7 +32554,7 @@
         <v>-13679788.24192613</v>
       </c>
       <c r="H1237">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1238" spans="1:8">
@@ -32580,7 +32580,7 @@
         <v>-13639641.73142613</v>
       </c>
       <c r="H1238">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1239" spans="1:8">
@@ -32606,7 +32606,7 @@
         <v>-13582657.08412613</v>
       </c>
       <c r="H1239">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1240" spans="1:8">
@@ -32892,7 +32892,7 @@
         <v>-13834910.17602613</v>
       </c>
       <c r="H1250">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1251" spans="1:8">
@@ -32918,7 +32918,7 @@
         <v>-13799759.57092613</v>
       </c>
       <c r="H1251">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1252" spans="1:8">
@@ -32944,7 +32944,7 @@
         <v>-13844982.42952613</v>
       </c>
       <c r="H1252">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1253" spans="1:8">
